--- a/Actitime/resources/testdata.xlsx
+++ b/Actitime/resources/testdata.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.30Batch\Frameworkspace\Actitime\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB63B7-48DB-4C8B-AC07-EEA17F60902F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39510542-60A7-4164-98F0-ACBAF04F29E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{C479E93C-1702-4744-8E56-C4C18F099193}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19470" windowHeight="11100" xr2:uid="{C479E93C-1702-4744-8E56-C4C18F099193}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>- New Customer -</t>
   </si>
@@ -55,6 +51,12 @@
   </si>
   <si>
     <t>EstimateHours</t>
+  </si>
+  <si>
+    <t>menuName1</t>
+  </si>
+  <si>
+    <t>Time-Track</t>
   </si>
 </sst>
 </file>
@@ -84,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,16 +109,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A93DEA-1681-4232-889E-0159AC62828E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +466,10 @@
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,8 +488,11 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,9 +510,13 @@
       </c>
       <c r="F2" s="2">
         <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>